--- a/ref/班表編排範本.xlsx
+++ b/ref/班表編排範本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="610" yWindow="600" windowWidth="17950" windowHeight="5990"/>
+    <workbookView xWindow="610" yWindow="600" windowWidth="17950" windowHeight="5990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="班表" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -437,8 +437,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,12 +467,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -713,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -785,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -800,6 +797,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -814,44 +839,422 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1523,8 +1926,8 @@
   </sheetPr>
   <dimension ref="A1:AI1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="15" customHeight="1"/>
@@ -1534,48 +1937,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="54" customHeight="1">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="37"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="54"/>
     </row>
     <row r="2" spans="1:35" ht="31">
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -1668,10 +2071,10 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="31">
-      <c r="B3" s="41"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1764,12 +2167,12 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="69" customHeight="1">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="10">
         <v>2</v>
       </c>
@@ -1865,12 +2268,12 @@
       <c r="A5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1966,12 +2369,12 @@
       <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11">
         <v>2</v>
@@ -2016,10 +2419,10 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="52.5" customHeight="1">
-      <c r="B7" s="48"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -2052,10 +2455,10 @@
       <c r="AI7" s="17"/>
     </row>
     <row r="8" spans="1:35" ht="51" customHeight="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -2088,10 +2491,10 @@
       <c r="AI8" s="17"/>
     </row>
     <row r="9" spans="1:35" ht="54" customHeight="1">
-      <c r="B9" s="48"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -2127,12 +2530,12 @@
       <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="10" t="s">
         <v>8</v>
       </c>
@@ -2228,12 +2631,12 @@
       <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="13">
         <v>1</v>
       </c>
@@ -2329,12 +2732,12 @@
       <c r="A12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="15">
         <v>2</v>
       </c>
@@ -2430,12 +2833,12 @@
       <c r="A13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -2510,12 +2913,12 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="125">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21" t="s">
@@ -2554,302 +2957,302 @@
       <c r="AI14" s="19"/>
     </row>
     <row r="15" spans="1:35" ht="14.5">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="59" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="50"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="33"/>
     </row>
     <row r="16" spans="1:35" ht="14.5">
-      <c r="B16" s="61"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="50"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="33"/>
     </row>
     <row r="17" spans="2:35" ht="60" customHeight="1">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="53"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="36"/>
     </row>
     <row r="18" spans="2:35" ht="14.5">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="58" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="50"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="33"/>
     </row>
     <row r="19" spans="2:35" ht="14.5">
-      <c r="B19" s="61"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="50"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="33"/>
     </row>
     <row r="20" spans="2:35" ht="14.5">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="53"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="36"/>
     </row>
     <row r="21" spans="2:35" ht="37" customHeight="1">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="56"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="39"/>
     </row>
     <row r="22" spans="2:35" ht="6" customHeight="1">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="53"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="36"/>
     </row>
     <row r="23" spans="2:35" ht="14.5">
       <c r="B23" s="24"/>
@@ -38097,6 +38500,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="F21:AI21"/>
     <mergeCell ref="F22:AI22"/>
@@ -38108,244 +38520,235 @@
     <mergeCell ref="F15:AI17"/>
     <mergeCell ref="B15:E17"/>
     <mergeCell ref="B18:E20"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="82" priority="14" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="80" priority="16" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="78" priority="18" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="77" priority="19" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="76" priority="20" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="75" priority="21" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="74" priority="22" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="73" priority="23" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="72" priority="24" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="71" priority="25" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="70" priority="26" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="68" priority="28" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="67" priority="29" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="66" priority="30" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="14" priority="32" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="64" priority="32" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="63" priority="33" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="12" priority="34" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="62" priority="34" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="11" priority="35" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="61" priority="35" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="10" priority="36" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="60" priority="36" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="59" priority="37" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="8" priority="38" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="58" priority="38" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="7" priority="39" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="57" priority="39" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="6" priority="40" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="5" priority="41" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="4" priority="42" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="3" priority="43" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="2" priority="44" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="1" priority="45" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="0" priority="46" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38359,8 +38762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -38372,10 +38775,10 @@
       <c r="A1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="26" t="s">
@@ -38389,16 +38792,16 @@
       <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>0.4375</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>0.77083333333333337</v>
       </c>
     </row>
@@ -38406,65 +38809,295 @@
       <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>0.5625</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27">
+      <c r="A4" s="61">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="26">
-        <v>1030</v>
+      <c r="D5" s="29">
+        <v>0.4375</v>
       </c>
-      <c r="E5" s="26">
-        <v>1830</v>
+      <c r="E5" s="29">
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="&quot;休&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""休"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="&quot;例&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""例"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="&quot;休&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""休"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="&quot;例&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""例"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="&quot;休&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""休"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="&quot;例&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""例"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="&quot;休&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""休"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="&quot;例&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""例"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="&quot;休&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""休"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="&quot;例&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""例"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="&quot;休&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""休"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="&quot;例&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""例"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="18" priority="28" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="&quot;休&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""休"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="&quot;例&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""例"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="&quot;休&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""休"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="14" priority="32" operator="containsText" text="&quot;例&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""例"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="12" priority="34" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="11" priority="35" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="10" priority="36" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="8" priority="38" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="7" priority="39" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="6" priority="40" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="5" priority="41" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="4" priority="42" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="3" priority="43" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="2" priority="44" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="1" priority="45" operator="containsText" text="&quot;O&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""O"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="0" priority="46" operator="containsText" text="&quot;X&quot;">
+      <formula>NOT(ISERROR(SEARCH(("""X"""),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -38478,105 +39111,105 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="31"/>
+    <col min="1" max="16384" width="8.6640625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>63</v>
       </c>
     </row>
@@ -38595,182 +39228,182 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="31"/>
+    <col min="1" max="16384" width="8.6640625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>97</v>
       </c>
     </row>

--- a/ref/班表編排範本.xlsx
+++ b/ref/班表編排範本.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>日</t>
   </si>
@@ -95,23 +95,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>fakeEmpNum</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.9月班表</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>全</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -330,12 +318,40 @@
   <si>
     <t>1230-2030</t>
   </si>
+  <si>
+    <t>工號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>empNo1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>empNo2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>empNo3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>empNo4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>empNo5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>empNo6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -439,6 +455,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -713,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -797,34 +820,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -839,54 +843,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="92">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1927,7 +1921,7 @@
   <dimension ref="A1:AI1001"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="15" customHeight="1"/>
@@ -1937,48 +1931,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="54" customHeight="1">
-      <c r="B1" s="52" t="s">
-        <v>23</v>
+      <c r="A1" s="33" t="s">
+        <v>95</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="54"/>
+      <c r="B1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39"/>
     </row>
     <row r="2" spans="1:35" ht="31">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -2071,10 +2068,10 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="31">
-      <c r="B3" s="58"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2167,12 +2164,12 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="69" customHeight="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="10">
         <v>2</v>
       </c>
@@ -2266,14 +2263,14 @@
     </row>
     <row r="5" spans="1:35" ht="64.5" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2367,14 +2364,14 @@
     </row>
     <row r="6" spans="1:35" ht="72" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11">
         <v>2</v>
@@ -2419,10 +2416,10 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="52.5" customHeight="1">
-      <c r="B7" s="44"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -2455,10 +2452,10 @@
       <c r="AI7" s="17"/>
     </row>
     <row r="8" spans="1:35" ht="51" customHeight="1">
-      <c r="B8" s="44"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -2491,10 +2488,10 @@
       <c r="AI8" s="17"/>
     </row>
     <row r="9" spans="1:35" ht="54" customHeight="1">
-      <c r="B9" s="44"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -2528,14 +2525,14 @@
     </row>
     <row r="10" spans="1:35" ht="69" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="10" t="s">
         <v>8</v>
       </c>
@@ -2629,14 +2626,14 @@
     </row>
     <row r="11" spans="1:35" ht="69" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="13">
         <v>1</v>
       </c>
@@ -2730,14 +2727,14 @@
     </row>
     <row r="12" spans="1:35" ht="66" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <v>2</v>
       </c>
@@ -2831,14 +2828,14 @@
     </row>
     <row r="13" spans="1:35" ht="66" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -2913,12 +2910,12 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="125">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21" t="s">
@@ -2957,302 +2954,302 @@
       <c r="AI14" s="19"/>
     </row>
     <row r="15" spans="1:35" ht="14.5">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="46" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="33"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="52"/>
     </row>
     <row r="16" spans="1:35" ht="14.5">
-      <c r="B16" s="48"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="33"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="52"/>
     </row>
     <row r="17" spans="2:35" ht="60" customHeight="1">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="36"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="55"/>
     </row>
     <row r="18" spans="2:35" ht="14.5">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="45" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="33"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="52"/>
     </row>
     <row r="19" spans="2:35" ht="14.5">
-      <c r="B19" s="48"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="33"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="52"/>
     </row>
     <row r="20" spans="2:35" ht="14.5">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="36"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="55"/>
     </row>
     <row r="21" spans="2:35" ht="37" customHeight="1">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="39"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="58"/>
     </row>
     <row r="22" spans="2:35" ht="6" customHeight="1">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="36"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="55"/>
     </row>
     <row r="23" spans="2:35" ht="14.5">
       <c r="B23" s="24"/>
@@ -38500,15 +38497,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="F21:AI21"/>
     <mergeCell ref="F22:AI22"/>
@@ -38520,235 +38508,244 @@
     <mergeCell ref="F15:AI17"/>
     <mergeCell ref="B15:E17"/>
     <mergeCell ref="B18:E20"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="87" priority="5" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="86" priority="6" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="84" priority="8" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="82" priority="10" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="80" priority="12" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="79" priority="13" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="82" priority="14" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="78" priority="14" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="80" priority="16" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="76" priority="16" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="78" priority="18" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="74" priority="18" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="77" priority="19" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="76" priority="20" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="72" priority="20" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="75" priority="21" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="74" priority="22" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="70" priority="22" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="73" priority="23" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="72" priority="24" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="68" priority="24" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="71" priority="25" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="67" priority="25" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="70" priority="26" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="66" priority="26" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="65" priority="27" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="68" priority="28" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="64" priority="28" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="67" priority="29" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="66" priority="30" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="62" priority="30" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="&quot;休&quot;">
+    <cfRule type="containsText" dxfId="61" priority="31" operator="containsText" text="&quot;休&quot;">
       <formula>NOT(ISERROR(SEARCH(("""休"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="64" priority="32" operator="containsText" text="&quot;例&quot;">
+    <cfRule type="containsText" dxfId="60" priority="32" operator="containsText" text="&quot;例&quot;">
       <formula>NOT(ISERROR(SEARCH(("""例"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="63" priority="33" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="59" priority="33" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="62" priority="34" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="58" priority="34" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="61" priority="35" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="60" priority="36" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="56" priority="36" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="59" priority="37" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="55" priority="37" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="58" priority="38" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="54" priority="38" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="57" priority="39" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="53" priority="39" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="50" priority="42" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="&quot;O&quot;">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="&quot;O&quot;">
       <formula>NOT(ISERROR(SEARCH(("""O"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="&quot;X&quot;">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="&quot;X&quot;">
       <formula>NOT(ISERROR(SEARCH(("""X"""),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38763,7 +38760,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -38773,19 +38770,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -38793,10 +38790,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="29">
         <v>0.4375</v>
@@ -38810,10 +38807,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="29">
         <v>0.5625</v>
@@ -38823,14 +38820,14 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="29">
         <v>0.52083333333333337</v>
@@ -38840,14 +38837,14 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="29">
         <v>0.4375</v>
@@ -38857,14 +38854,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27" t="s">
-        <v>26</v>
-      </c>
+      <c r="A7" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -39116,101 +39109,101 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C3" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C4" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="30" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C6" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C7" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C8" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -39233,178 +39226,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="B4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
+      <c r="B5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="30" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
+      <c r="B6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="30" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B8" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="30" t="s">
+      <c r="B22" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/ref/班表編排範本.xlsx
+++ b/ref/班表編排範本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="610" yWindow="600" windowWidth="17950" windowHeight="5990" activeTab="1"/>
+    <workbookView xWindow="610" yWindow="600" windowWidth="17950" windowHeight="5990"/>
   </bookViews>
   <sheets>
     <sheet name="班表" sheetId="1" r:id="rId1"/>
@@ -829,6 +829,34 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -843,38 +871,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1920,7 +1920,7 @@
   </sheetPr>
   <dimension ref="A1:AI1001"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -1934,48 +1934,48 @@
       <c r="A1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="57"/>
     </row>
     <row r="2" spans="1:35" ht="31">
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -2068,10 +2068,10 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="31">
-      <c r="B3" s="43"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2164,12 +2164,12 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="69" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="10">
         <v>2</v>
       </c>
@@ -2416,10 +2416,10 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="52.5" customHeight="1">
-      <c r="B7" s="50"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -2452,10 +2452,10 @@
       <c r="AI7" s="17"/>
     </row>
     <row r="8" spans="1:35" ht="51" customHeight="1">
-      <c r="B8" s="50"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -2488,10 +2488,10 @@
       <c r="AI8" s="17"/>
     </row>
     <row r="9" spans="1:35" ht="54" customHeight="1">
-      <c r="B9" s="50"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -2628,12 +2628,12 @@
       <c r="A11" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="13">
         <v>1</v>
       </c>
@@ -2830,12 +2830,12 @@
       <c r="A13" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -2954,302 +2954,302 @@
       <c r="AI14" s="19"/>
     </row>
     <row r="15" spans="1:35" ht="14.5">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="61" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="52"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="36"/>
     </row>
     <row r="16" spans="1:35" ht="14.5">
-      <c r="B16" s="63"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="52"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="36"/>
     </row>
     <row r="17" spans="2:35" ht="60" customHeight="1">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="55"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="39"/>
     </row>
     <row r="18" spans="2:35" ht="14.5">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="60" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="52"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="36"/>
     </row>
     <row r="19" spans="2:35" ht="14.5">
-      <c r="B19" s="63"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="52"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="36"/>
     </row>
     <row r="20" spans="2:35" ht="14.5">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="55"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="39"/>
     </row>
     <row r="21" spans="2:35" ht="37" customHeight="1">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="58"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="42"/>
     </row>
     <row r="22" spans="2:35" ht="6" customHeight="1">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="55"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="39"/>
     </row>
     <row r="23" spans="2:35" ht="14.5">
       <c r="B23" s="24"/>
@@ -38497,6 +38497,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="F21:AI21"/>
     <mergeCell ref="F22:AI22"/>
@@ -38508,15 +38517,6 @@
     <mergeCell ref="F15:AI17"/>
     <mergeCell ref="B15:E17"/>
     <mergeCell ref="B18:E20"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
@@ -38759,7 +38759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/ref/班表編排範本.xlsx
+++ b/ref/班表編排範本.xlsx
@@ -829,34 +829,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -871,10 +843,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1921,61 +1921,64 @@
   <dimension ref="A1:AI1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="0.4140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="54" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39"/>
     </row>
     <row r="2" spans="1:35" ht="31">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -2068,10 +2071,10 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="31">
-      <c r="B3" s="61"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2164,12 +2167,12 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="69" customHeight="1">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="10">
         <v>2</v>
       </c>
@@ -2416,10 +2419,10 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="52.5" customHeight="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -2452,10 +2455,10 @@
       <c r="AI7" s="17"/>
     </row>
     <row r="8" spans="1:35" ht="51" customHeight="1">
-      <c r="B8" s="47"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -2488,10 +2491,10 @@
       <c r="AI8" s="17"/>
     </row>
     <row r="9" spans="1:35" ht="54" customHeight="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -2628,12 +2631,12 @@
       <c r="A11" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="13">
         <v>1</v>
       </c>
@@ -2830,12 +2833,12 @@
       <c r="A13" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="63"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -2954,302 +2957,302 @@
       <c r="AI14" s="19"/>
     </row>
     <row r="15" spans="1:35" ht="14.5">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="49" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="36"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="52"/>
     </row>
     <row r="16" spans="1:35" ht="14.5">
-      <c r="B16" s="51"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="36"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="52"/>
     </row>
     <row r="17" spans="2:35" ht="60" customHeight="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="39"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="55"/>
     </row>
     <row r="18" spans="2:35" ht="14.5">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="48" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="36"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="52"/>
     </row>
     <row r="19" spans="2:35" ht="14.5">
-      <c r="B19" s="51"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="36"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="52"/>
     </row>
     <row r="20" spans="2:35" ht="14.5">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="39"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="55"/>
     </row>
     <row r="21" spans="2:35" ht="37" customHeight="1">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="42"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="58"/>
     </row>
     <row r="22" spans="2:35" ht="6" customHeight="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="39"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="55"/>
     </row>
     <row r="23" spans="2:35" ht="14.5">
       <c r="B23" s="24"/>
@@ -38497,15 +38500,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B1:AI1"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E22"/>
     <mergeCell ref="F21:AI21"/>
     <mergeCell ref="F22:AI22"/>
@@ -38517,6 +38511,15 @@
     <mergeCell ref="F15:AI17"/>
     <mergeCell ref="B15:E17"/>
     <mergeCell ref="B18:E20"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:AI1"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="L4:L5 P4:Q4 T4:U4 Y4 AA4 AF4 I5:J5 K5:K6 M5:N6 R5:S6 X5 Z5:Z6 AB5:AC5 AE5:AE6 AG5 AH5:AH6 AI5 P6:Q6 T6 W6 AA6 AD6 G10 I10 O10:O13 Q10 T10:U10 W10:W11 Z10:Z13 AA10:AA12 AB10:AB11 AD10:AD11 AF10:AF12 AG10:AG11 AH10 F11:F13 K11 M11:N13 P11 R11:R13 S11 X11:Y13 AI11:AI12 L12:L13 Q12 T12:U13 V12 AC12 AE12 AH12 S13 W13 AB13 AG13">
